--- a/biology/Médecine/Suture_occipito-mastoïdienne/Suture_occipito-mastoïdienne.xlsx
+++ b/biology/Médecine/Suture_occipito-mastoïdienne/Suture_occipito-mastoïdienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Suture_occipito-masto%C3%AFdienne</t>
+          <t>Suture_occipito-mastoïdienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La suture occipito-mastoïdienne (ou suture occipito-temporale ou suture temporo-occipitale) est la suture crânienne entre le bord mastoïdien de l'os occipital et le bord occipital de la partie pétreuse de l'os temporal.
 Elle est en continuité avec la suture lambdoïde et avec la suture pariéto-mastoïdienne au niveau due l'astérion.
